--- a/TestData/T1550_T1552_Companies_NewCompanyListSaveCancelEditAndDelete.xlsx
+++ b/TestData/T1550_T1552_Companies_NewCompanyListSaveCancelEditAndDelete.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgandhi1012\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823DB9B5-4A33-4751-8353-3443BEB55246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7536" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -54,13 +55,13 @@
     <t>Error: Invalid Data.\r\nReview all error messages below to correct your data.</t>
   </si>
   <si>
-    <t>Nicole Bicho</t>
+    <t>Drew Koecher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,9 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,8 +387,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -411,45 +410,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -458,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,16 +466,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
